--- a/CAMMU_Beta_V1/BOM.xlsx
+++ b/CAMMU_Beta_V1/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\3D printing\K1 Max\Custom MMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martine\Downloads\3D Printing\Github\MMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590A6B4F-96A9-4E4D-9368-B217D6C2A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABE704-2D71-4381-8F3B-EC799143354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D1E4D01-EF9E-4741-A0AF-28E60AF93D6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D1E4D01-EF9E-4741-A0AF-28E60AF93D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Part</t>
   </si>
@@ -33,9 +33,6 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -124,15 +121,100 @@
   </si>
   <si>
     <t>5x17mm rod</t>
+  </si>
+  <si>
+    <t>F695ZZ bearing</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://magnetstore.co.za/products/10x2mm-n38-ni-neodymium-disc</t>
+  </si>
+  <si>
+    <t>https://3dprintingstore.co.za/products/bearing-625-2rs</t>
+  </si>
+  <si>
+    <t>https://3dprintingstore.co.za/products/extruder-gear-for-direct-drive-extruder-11mm?_pos=1&amp;_sid=0a82835de&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>https://www.netram.co.za/open-build/8945-smooth-round-bar-3mm.html</t>
+  </si>
+  <si>
+    <t>https://www.netram.co.za/open-build/8950-smooth-round-bar-5mm.html</t>
+  </si>
+  <si>
+    <t>8mm Shaft</t>
+  </si>
+  <si>
+    <t>https://3dprintingstore.co.za/products/linear-chromed-steel-rod-8mm-350mm?_pos=12&amp;_sid=c951e9a9e&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>https://apexinvent.co.za/products/microswitch-20mm-x-9-5mm?_pos=4&amp;_sid=566c43e40&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>https://apexinvent.co.za/products/t-nuts-for-20-series-extrusions?variant=41180604858483</t>
+  </si>
+  <si>
+    <t>https://bearingsonlinesa.co.za/shop/s-balls-4mm-carbon-gd-1000/?gad_source=1</t>
+  </si>
+  <si>
+    <t>https://www.communica.co.za/products/hkd-linear-ball-bearing-8mm?utm_source=www.communica.co.za&amp;variant=31933933092937&amp;sfdr_ptcid=31591_617_668183637&amp;sfdr_hash=fd20e6de2b2dcea6224283e274ba4559&amp;gad_source=1</t>
+  </si>
+  <si>
+    <t>https://apexinvent.co.za/products/threaded-insert-m3x4mm-100-pcs-for-voron?_pos=1&amp;_sid=eadaba180&amp;_ss=r</t>
+  </si>
+  <si>
+    <t>Coupler</t>
+  </si>
+  <si>
+    <t>m3 heatset</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>https://www.netram.co.za/belts-gear/8892-6mm-gt2-open-ended-belt-1-meter.html</t>
+  </si>
+  <si>
+    <t>https://www.pishop.co.za/store/f695zz-5mmx13mmx4mm-double-shielded-flanged-ball-bearings</t>
+  </si>
+  <si>
+    <t>https://www.netram.co.za/belts-gear/8895-gt2-pulley-8mm-bore-20-teeth-6mm-belt.html</t>
+  </si>
+  <si>
+    <t>Custom Length</t>
+  </si>
+  <si>
+    <t>https://www.communica.co.za/products/hkd-stepper-motor-34mm-nema-17?utm_source=www.communica.co.za&amp;variant=31916107792457&amp;sfdr_ptcid=31591_617_668166770&amp;sfdr_hash=4f6ab82e144ad8a9a4cc8aebc28b28c3&amp;gad_source=1</t>
+  </si>
+  <si>
+    <t>CAMMU BOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,12 +237,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,9 +292,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +332,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,323 +588,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A4982D-007E-4DB8-8751-EA6FEB7BAE28}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D39" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="4">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A15:A29"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Verdana,Regular"&amp;10&amp;K666666PUBLIC</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">b405e4f9-46da-45a4-abfe-101b68c57104</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9Qcml2YXRlUHJvdG9jb2wiLCJwcm9wcyI6W3sibiI6IkNsYXNzaWZpY2F0aW9uIiwidmFscyI6W3sidmFsdWUiOiJQVUJMSUMifV19LHsibiI6IlNlbnNpdGl2aXR5UFVCTElDIiwidmFscyI6W3sidmFsdWUiOiJCdXNpbmVzcyBJbmZvIn1dfSx7Im4iOiJTZW5zaXRpdml0eVJFU1RSSUNURUQiLCJ2YWxzIjpbXX0seyJuIjoiQXVkaWVuY2UiLCJ2YWxzIjpbXX0seyJuIjoiSW5mb1R5cGVTZXZlbkRheXMiLCJ2YWxzIjpbXX0seyJuIjoiSW5mb1R5cGVPdGhlciIsInZhbHMiOltdfSx7Im4iOiJSZXRlbnRpb25QcmljaW5nIiwidmFscyI6W119LHsibiI6IlJldGVudGlvbkNvbnRyYWN0IiwidmFscyI6W119XX0=</TitusMetadata>
+</titus>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0943B9EC-0681-4118-B5AB-73AAB428B37B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CAMMU_Beta_V1/BOM.xlsx
+++ b/CAMMU_Beta_V1/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martine\Downloads\3D Printing\Github\MMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABE704-2D71-4381-8F3B-EC799143354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3F933-3B7F-47F5-B339-0DEAFE73331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D1E4D01-EF9E-4741-A0AF-28E60AF93D6F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Part</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>CAMMU BOM</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>STM32F401</t>
+  </si>
+  <si>
+    <t>https://www.robotics.org.za/STM32F401CCU6-MOD</t>
   </si>
 </sst>
 </file>
@@ -256,20 +265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A4982D-007E-4DB8-8751-EA6FEB7BAE28}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -602,511 +606,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="1" t="s">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>2</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>2</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4" t="s">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>5</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>4</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1135,6 +1146,7 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0943B9EC-0681-4118-B5AB-73AAB428B37B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CAMMU_Beta_V1/BOM.xlsx
+++ b/CAMMU_Beta_V1/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martine\Downloads\3D Printing\Github\MMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\3D printing\K1 Max\Custom MMU\Upload to Github\CAMMU V1 Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3F933-3B7F-47F5-B339-0DEAFE73331F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C09BC6-14EE-4DA0-95C9-E82DCE140C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D1E4D01-EF9E-4741-A0AF-28E60AF93D6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D1E4D01-EF9E-4741-A0AF-28E60AF93D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Part</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>20T 5mm bore</t>
-  </si>
-  <si>
-    <t>F625 bearing</t>
   </si>
   <si>
     <t>NEMA17</t>
@@ -296,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -442,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -584,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A4982D-007E-4DB8-8751-EA6FEB7BAE28}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -625,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -643,7 +640,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +653,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +666,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,7 +679,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,7 +692,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,7 +705,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,7 +753,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,22 +779,22 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -821,7 +818,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,7 +853,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,7 +910,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,11 +919,11 @@
         <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,14 +940,14 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,10 +959,10 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,33 +975,33 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1017,13 +1014,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
@@ -1045,33 +1042,33 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -1089,35 +1086,35 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
